--- a/Projet3/graphique500.xlsx
+++ b/Projet3/graphique500.xlsx
@@ -5,24 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Caro cégep\Session 3\Intelligence Artificielle 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Donnees-megadonnees-AI-2\Projet\420-C62-IN_AI\Projet3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35D8F8EF-6851-497E-875D-D52E18BD0791}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2968ECA3-5C50-40B0-9D31-F8ED3936D677}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{628D57A6-7470-4BBC-A8AD-8165B67CAAF8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{628D57A6-7470-4BBC-A8AD-8165B67CAAF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Feuil1!$A$18:$A$28</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Feuil1!$B$17</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Feuil1!$B$18:$B$28</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Feuil1!$A$18:$A$28</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Feuil1!$B$17</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Feuil1!$B$18:$B$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>500 F9</t>
   </si>
@@ -148,6 +146,51 @@
   </si>
   <si>
     <t>Non déterminé</t>
+  </si>
+  <si>
+    <t>Plan AI2</t>
+  </si>
+  <si>
+    <t>Intro</t>
+  </si>
+  <si>
+    <t>Bla</t>
+  </si>
+  <si>
+    <t>Discussion</t>
+  </si>
+  <si>
+    <t>Hypothèse de la densité/écart moyen</t>
+  </si>
+  <si>
+    <t>Analyse des données</t>
+  </si>
+  <si>
+    <t>Graphiques et tableaux</t>
+  </si>
+  <si>
+    <t>Constatation</t>
+  </si>
+  <si>
+    <t>Hypothèse données numérique</t>
+  </si>
+  <si>
+    <t>Hypothèse type de mots</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
+  </si>
+  <si>
+    <t>kMean</t>
+  </si>
+  <si>
+    <t>c'est bon ou pas bon?</t>
+  </si>
+  <si>
+    <t>Pousser plus loin sur hypothèse futur</t>
+  </si>
+  <si>
+    <t>Lol</t>
   </si>
 </sst>
 </file>
@@ -482,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -558,6 +601,24 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="8"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1381,7 +1442,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
+                <a:rPr lang="en-CA" sz="1100"/>
                 <a:t>Ce graphique n’est pas disponible dans votre version d’Excel.
 La modification de cette forme ou l’enregistrement de ce classeur dans un autre format de fichier endommagera le graphique de façon irréparable.</a:t>
               </a:r>
@@ -1708,7 +1769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E946B858-7CD5-47EB-9F4D-B0FC18FB1519}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -2100,4 +2161,153 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1784DF-DFFD-4F98-A41F-2ABE9861EFB5}">
+  <dimension ref="A1:A28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="32"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>